--- a/biology/Botanique/Chrysopogon_fulvibarbis/Chrysopogon_fulvibarbis.xlsx
+++ b/biology/Botanique/Chrysopogon_fulvibarbis/Chrysopogon_fulvibarbis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysopogon fulvibarbis (synonyme : Vetiveria fulvibarbis) est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire de l'Afrique tropicale.
-Ce sont des plantes herbacées vivaces, cespiteuses, à rhizomes courts, aux tiges (chaumes) dressées de 100 à 150 cm de long et aux inflorescences en panicules[2].
-Cette plante est vendue sur les marchés de Bamako (Mali). Les racines, appelées « gongo dili », servent à parfumer l'eau de boisson. Les tiges sont tressées en début de saison froide pour former des nattes appelées « seccos »[3].
+Ce sont des plantes herbacées vivaces, cespiteuses, à rhizomes courts, aux tiges (chaumes) dressées de 100 à 150 cm de long et aux inflorescences en panicules.
+Cette plante est vendue sur les marchés de Bamako (Mali). Les racines, appelées « gongo dili », servent à parfumer l'eau de boisson. Les tiges sont tressées en début de saison froide pour former des nattes appelées « seccos ».
 </t>
         </is>
       </c>
